--- a/ProbEstat_aula08.xlsx
+++ b/ProbEstat_aula08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1002250719\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1002250719\Desktop\probability-and-statistics-II-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23743EE0-5BA0-433B-9D23-D2CED153B4A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184643AA-D984-496F-9377-A6E6D4FC0B0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{5E80CECE-5248-4E76-B4DD-1D09F2DBC2EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{5E80CECE-5248-4E76-B4DD-1D09F2DBC2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex. 5.1_AC vs KWH" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="190">
   <si>
     <t>Obs.</t>
   </si>
@@ -599,6 +599,21 @@
   <si>
     <t>&gt; Como no final à uma queda, podemos usar a quadratica para melhor representar a fórmula</t>
   </si>
+  <si>
+    <t>x1 é muito diferente dos demais</t>
+  </si>
+  <si>
+    <t>y= a*x2+b*x3+c*x4+d</t>
+  </si>
+  <si>
+    <t>d = interseção</t>
+  </si>
+  <si>
+    <t>p valor do x1 é maior que 0,05, então não é significativo</t>
+  </si>
+  <si>
+    <t>Fórmula é 53% da definição de y</t>
+  </si>
 </sst>
 </file>
 
@@ -607,7 +622,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,8 +703,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +733,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1079,6 +1107,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4441,6 +4474,99 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381520</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>124136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D7926E-ACE8-4457-BDCD-3A8E3C34258E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="7262873"/>
+          <a:ext cx="3143770" cy="1881438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>77993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D65A18-CC8F-4D36-A287-CAA45395F07B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11496675" y="3068843"/>
+          <a:ext cx="2953300" cy="2589489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -5030,7 +5156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D453D3-D1EC-4B31-A7E6-4347BC7D4CAE}">
   <dimension ref="A2:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="E64" sqref="E64:G64"/>
     </sheetView>
   </sheetViews>
@@ -5941,10 +6067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C060594-80F3-40DF-AFC4-B5E89472D56F}">
-  <dimension ref="A2:K58"/>
+  <dimension ref="A2:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5954,6 +6080,10 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -6014,8 +6144,11 @@
       <c r="F8" s="54" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -6054,6 +6187,10 @@
       <c r="F10" s="22">
         <v>16.309999999999999</v>
       </c>
+      <c r="H10" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="63"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -6074,6 +6211,12 @@
       <c r="F11" s="22">
         <v>11.33</v>
       </c>
+      <c r="H11" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="60">
+        <v>0.73214022911726051</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
@@ -6094,6 +6237,12 @@
       <c r="F12" s="22">
         <v>12.31</v>
       </c>
+      <c r="H12" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="60">
+        <v>0.53602931509187479</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
@@ -6113,6 +6262,12 @@
       </c>
       <c r="F13" s="22">
         <v>16.29</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="60">
+        <v>0.49478747643337478</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6134,8 +6289,14 @@
       <c r="F14" s="22">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="60">
+        <v>70.638196426854392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>7</v>
       </c>
@@ -6153,6 +6314,12 @@
       </c>
       <c r="F15" s="22">
         <v>11.46</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="61">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6175,7 +6342,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>9</v>
       </c>
@@ -6194,8 +6361,11 @@
       <c r="F17" s="22">
         <v>12.07</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>10</v>
       </c>
@@ -6214,8 +6384,24 @@
       <c r="F18" s="22">
         <v>10.97</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="62"/>
+      <c r="I18" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" s="62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>11</v>
       </c>
@@ -6234,8 +6420,26 @@
       <c r="F19" s="22">
         <v>9.48</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="60">
+        <v>4</v>
+      </c>
+      <c r="J19" s="60">
+        <v>259411.79461825103</v>
+      </c>
+      <c r="K19" s="60">
+        <v>64852.948654562759</v>
+      </c>
+      <c r="L19" s="60">
+        <v>12.997221572258834</v>
+      </c>
+      <c r="M19" s="60">
+        <v>4.0926281859619161E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>12</v>
       </c>
@@ -6254,8 +6458,22 @@
       <c r="F20" s="22">
         <v>12.51</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="60">
+        <v>45</v>
+      </c>
+      <c r="J20" s="60">
+        <v>224538.96574974892</v>
+      </c>
+      <c r="K20" s="60">
+        <v>4989.7547944388652</v>
+      </c>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -6274,8 +6492,20 @@
       <c r="F21" s="22">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="61">
+        <v>49</v>
+      </c>
+      <c r="J21" s="61">
+        <v>483950.76036799996</v>
+      </c>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -6295,7 +6525,7 @@
         <v>11.98</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>15</v>
       </c>
@@ -6314,9 +6544,33 @@
       <c r="F23" s="22">
         <v>11.05</v>
       </c>
-      <c r="I23" s="56"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="62"/>
+      <c r="I23" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="N23" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>16</v>
       </c>
@@ -6335,8 +6589,38 @@
       <c r="F24" s="22">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="60">
+        <v>4.3060715828911498</v>
+      </c>
+      <c r="J24" s="60">
+        <v>70.822475545999936</v>
+      </c>
+      <c r="K24" s="60">
+        <v>6.0800918771814344E-2</v>
+      </c>
+      <c r="L24" s="60">
+        <v>0.95178699460127891</v>
+      </c>
+      <c r="M24" s="60">
+        <v>-138.33771642323813</v>
+      </c>
+      <c r="N24" s="60">
+        <v>146.94985958902043</v>
+      </c>
+      <c r="O24" s="60">
+        <v>-138.33771642323813</v>
+      </c>
+      <c r="P24" s="60">
+        <v>146.94985958902043</v>
+      </c>
+      <c r="R24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>17</v>
       </c>
@@ -6355,8 +6639,38 @@
       <c r="F25" s="22">
         <v>14.48</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="60">
+        <v>-8.186409340733547E-2</v>
+      </c>
+      <c r="J25" s="60">
+        <v>4.6779570525887149</v>
+      </c>
+      <c r="K25" s="60">
+        <v>-1.7499966863105988E-2</v>
+      </c>
+      <c r="L25" s="72">
+        <v>0.98611512161990766</v>
+      </c>
+      <c r="M25" s="71">
+        <v>-9.5037532460653171</v>
+      </c>
+      <c r="N25" s="60">
+        <v>9.3400250592506477</v>
+      </c>
+      <c r="O25" s="60">
+        <v>-9.5037532460653171</v>
+      </c>
+      <c r="P25" s="60">
+        <v>9.3400250592506477</v>
+      </c>
+      <c r="R25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>18</v>
       </c>
@@ -6375,8 +6689,35 @@
       <c r="F26" s="22">
         <v>9.06</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="60">
+        <v>2.2650599541952374</v>
+      </c>
+      <c r="J26" s="60">
+        <v>1.0504763529906089</v>
+      </c>
+      <c r="K26" s="60">
+        <v>2.1562217443037355</v>
+      </c>
+      <c r="L26" s="60">
+        <v>3.644860999419032E-2</v>
+      </c>
+      <c r="M26" s="60">
+        <v>0.1492919716976604</v>
+      </c>
+      <c r="N26" s="60">
+        <v>4.380827936692814</v>
+      </c>
+      <c r="O26" s="60">
+        <v>0.1492919716976604</v>
+      </c>
+      <c r="P26" s="60">
+        <v>4.380827936692814</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>19</v>
       </c>
@@ -6395,8 +6736,35 @@
       <c r="F27" s="22">
         <v>12.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="60">
+        <v>2.4977648657328642</v>
+      </c>
+      <c r="J27" s="60">
+        <v>0.84568765644356669</v>
+      </c>
+      <c r="K27" s="60">
+        <v>2.9535311845946777</v>
+      </c>
+      <c r="L27" s="60">
+        <v>4.9803914128011377E-3</v>
+      </c>
+      <c r="M27" s="60">
+        <v>0.79446249095517607</v>
+      </c>
+      <c r="N27" s="60">
+        <v>4.201067240510552</v>
+      </c>
+      <c r="O27" s="60">
+        <v>0.79446249095517607</v>
+      </c>
+      <c r="P27" s="60">
+        <v>4.201067240510552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>20</v>
       </c>
@@ -6415,8 +6783,35 @@
       <c r="F28" s="22">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="61">
+        <v>16.696610970950513</v>
+      </c>
+      <c r="J28" s="61">
+        <v>3.570214444066119</v>
+      </c>
+      <c r="K28" s="61">
+        <v>4.6766409224244621</v>
+      </c>
+      <c r="L28" s="61">
+        <v>2.6773080974421791E-5</v>
+      </c>
+      <c r="M28" s="61">
+        <v>9.5058299601255989</v>
+      </c>
+      <c r="N28" s="61">
+        <v>23.887391981775426</v>
+      </c>
+      <c r="O28" s="61">
+        <v>9.5058299601255989</v>
+      </c>
+      <c r="P28" s="61">
+        <v>23.887391981775426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>21</v>
       </c>
@@ -6436,7 +6831,7 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>22</v>
       </c>
@@ -6455,8 +6850,24 @@
       <c r="F30" s="22">
         <v>19.27</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="62"/>
+      <c r="I30" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" s="62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>23</v>
       </c>
@@ -6475,8 +6886,18 @@
       <c r="F31" s="22">
         <v>13.33</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="60">
+        <v>1</v>
+      </c>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>24</v>
       </c>
@@ -6495,8 +6916,20 @@
       <c r="F32" s="22">
         <v>11.56</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" s="60">
+        <v>0.14692531411317841</v>
+      </c>
+      <c r="J32" s="60">
+        <v>1</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>25</v>
       </c>
@@ -6515,8 +6948,22 @@
       <c r="F33" s="22">
         <v>14.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="60">
+        <v>0.45537588551342262</v>
+      </c>
+      <c r="J33" s="60">
+        <v>8.2436082117766374E-2</v>
+      </c>
+      <c r="K33" s="60">
+        <v>1</v>
+      </c>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>26</v>
       </c>
@@ -6535,8 +6982,24 @@
       <c r="F34" s="22">
         <v>17.350000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="60">
+        <v>0.40690058039556254</v>
+      </c>
+      <c r="J34" s="60">
+        <v>0.36369513862000863</v>
+      </c>
+      <c r="K34" s="60">
+        <v>0.20297954151202424</v>
+      </c>
+      <c r="L34" s="60">
+        <v>1</v>
+      </c>
+      <c r="M34" s="60"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>27</v>
       </c>
@@ -6555,8 +7018,26 @@
       <c r="F35" s="22">
         <v>6.88</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="61">
+        <v>0.59302413327917403</v>
+      </c>
+      <c r="J35" s="61">
+        <v>2.0646638081539579E-2</v>
+      </c>
+      <c r="K35" s="61">
+        <v>0.30916368334460004</v>
+      </c>
+      <c r="L35" s="61">
+        <v>6.4632859811373247E-2</v>
+      </c>
+      <c r="M35" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>28</v>
       </c>
@@ -6576,7 +7057,7 @@
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>29</v>
       </c>
@@ -6596,7 +7077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>30</v>
       </c>
@@ -6616,7 +7097,7 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>31</v>
       </c>
@@ -6636,7 +7117,7 @@
         <v>12.44</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>32</v>
       </c>
@@ -6656,7 +7137,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>33</v>
       </c>
@@ -6676,7 +7157,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>34</v>
       </c>
@@ -6696,7 +7177,7 @@
         <v>16.739999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>35</v>
       </c>
@@ -6716,7 +7197,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>36</v>
       </c>
@@ -6736,7 +7217,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>37</v>
       </c>
@@ -6756,7 +7237,7 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>38</v>
       </c>
@@ -6776,7 +7257,7 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>39</v>
       </c>
@@ -6796,7 +7277,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>40</v>
       </c>
@@ -6816,7 +7297,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>41</v>
       </c>
@@ -6836,7 +7317,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>42</v>
       </c>
@@ -6856,7 +7337,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>43</v>
       </c>
@@ -6876,7 +7357,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>44</v>
       </c>
@@ -6896,7 +7377,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>45</v>
       </c>
@@ -6916,7 +7397,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>46</v>
       </c>
@@ -6936,7 +7417,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>47</v>
       </c>
@@ -6956,7 +7437,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>48</v>
       </c>
@@ -6976,7 +7457,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>49</v>
       </c>
@@ -6996,7 +7477,7 @@
         <v>15.01</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>50</v>
       </c>
@@ -7013,6 +7494,1041 @@
         <v>47.97</v>
       </c>
       <c r="F58" s="25">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="K64" s="62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="18">
+        <v>561.45000000000005</v>
+      </c>
+      <c r="C65" s="18">
+        <v>57.62</v>
+      </c>
+      <c r="D65" s="18">
+        <v>51.81</v>
+      </c>
+      <c r="E65" s="19">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="G65" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="60">
+        <v>1</v>
+      </c>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="21">
+        <v>458.74</v>
+      </c>
+      <c r="C66" s="21">
+        <v>69.41</v>
+      </c>
+      <c r="D66" s="21">
+        <v>56.92</v>
+      </c>
+      <c r="E66" s="22">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="G66" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" s="60">
+        <v>0.45537588551342262</v>
+      </c>
+      <c r="I66" s="60">
+        <v>1</v>
+      </c>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="21">
+        <v>408.44</v>
+      </c>
+      <c r="C67" s="21">
+        <v>51.91</v>
+      </c>
+      <c r="D67" s="21">
+        <v>55.12</v>
+      </c>
+      <c r="E67" s="22">
+        <v>11.33</v>
+      </c>
+      <c r="G67" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" s="60">
+        <v>0.40690058039556254</v>
+      </c>
+      <c r="I67" s="60">
+        <v>0.20297954151202424</v>
+      </c>
+      <c r="J67" s="60">
+        <v>1</v>
+      </c>
+      <c r="K67" s="60"/>
+    </row>
+    <row r="68" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="21">
+        <v>396.71</v>
+      </c>
+      <c r="C68" s="21">
+        <v>34.24</v>
+      </c>
+      <c r="D68" s="21">
+        <v>45.62</v>
+      </c>
+      <c r="E68" s="22">
+        <v>12.31</v>
+      </c>
+      <c r="G68" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" s="61">
+        <v>0.59302413327917403</v>
+      </c>
+      <c r="I68" s="61">
+        <v>0.30916368334460004</v>
+      </c>
+      <c r="J68" s="61">
+        <v>6.4632859811373247E-2</v>
+      </c>
+      <c r="K68" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="21">
+        <v>466.64</v>
+      </c>
+      <c r="C69" s="21">
+        <v>42.68</v>
+      </c>
+      <c r="D69" s="21">
+        <v>44.5</v>
+      </c>
+      <c r="E69" s="22">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="21">
+        <v>464.39</v>
+      </c>
+      <c r="C70" s="21">
+        <v>55.46</v>
+      </c>
+      <c r="D70" s="21">
+        <v>46.46</v>
+      </c>
+      <c r="E70" s="22">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="21">
+        <v>278.67</v>
+      </c>
+      <c r="C71" s="21">
+        <v>44.77</v>
+      </c>
+      <c r="D71" s="21">
+        <v>49.93</v>
+      </c>
+      <c r="E71" s="22">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="21">
+        <v>630.08000000000004</v>
+      </c>
+      <c r="C72" s="21">
+        <v>63.28</v>
+      </c>
+      <c r="D72" s="21">
+        <v>64.17</v>
+      </c>
+      <c r="E72" s="22">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="21">
+        <v>296.58</v>
+      </c>
+      <c r="C73" s="21">
+        <v>37.78</v>
+      </c>
+      <c r="D73" s="21">
+        <v>39.71</v>
+      </c>
+      <c r="E73" s="22">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="21">
+        <v>414.98</v>
+      </c>
+      <c r="C74" s="21">
+        <v>41.29</v>
+      </c>
+      <c r="D74" s="21">
+        <v>46.11</v>
+      </c>
+      <c r="E74" s="22">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="21">
+        <v>440.82</v>
+      </c>
+      <c r="C75" s="21">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="D75" s="21">
+        <v>58.49</v>
+      </c>
+      <c r="E75" s="22">
+        <v>9.48</v>
+      </c>
+      <c r="G75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="21">
+        <v>475.11</v>
+      </c>
+      <c r="C76" s="21">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="D76" s="21">
+        <v>51.05</v>
+      </c>
+      <c r="E76" s="22">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="21">
+        <v>365.32</v>
+      </c>
+      <c r="C77" s="21">
+        <v>55.83</v>
+      </c>
+      <c r="D77" s="21">
+        <v>51.7</v>
+      </c>
+      <c r="E77" s="22">
+        <v>6.8</v>
+      </c>
+      <c r="G77" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="H77" s="63"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="21">
+        <v>415.51</v>
+      </c>
+      <c r="C78" s="21">
+        <v>46.25</v>
+      </c>
+      <c r="D78" s="21">
+        <v>29.09</v>
+      </c>
+      <c r="E78" s="22">
+        <v>11.98</v>
+      </c>
+      <c r="G78" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="H78" s="60">
+        <v>0.73213807271959319</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="21">
+        <v>366.3</v>
+      </c>
+      <c r="C79" s="21">
+        <v>51.49</v>
+      </c>
+      <c r="D79" s="21">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="E79" s="22">
+        <v>11.05</v>
+      </c>
+      <c r="G79" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="H79" s="75">
+        <v>0.53602615752556027</v>
+      </c>
+      <c r="I79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="21">
+        <v>409.82</v>
+      </c>
+      <c r="C80" s="21">
+        <v>42.49</v>
+      </c>
+      <c r="D80" s="21">
+        <v>41.42</v>
+      </c>
+      <c r="E80" s="22">
+        <v>7.88</v>
+      </c>
+      <c r="G80" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="H80" s="60">
+        <v>0.50576699388592294</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="21">
+        <v>361.01</v>
+      </c>
+      <c r="C81" s="21">
+        <v>58.46</v>
+      </c>
+      <c r="D81" s="21">
+        <v>44.57</v>
+      </c>
+      <c r="E81" s="22">
+        <v>14.48</v>
+      </c>
+      <c r="G81" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H81" s="60">
+        <v>69.866408837395397</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="21">
+        <v>365.12</v>
+      </c>
+      <c r="C82" s="21">
+        <v>45.32</v>
+      </c>
+      <c r="D82" s="21">
+        <v>48.98</v>
+      </c>
+      <c r="E82" s="22">
+        <v>9.06</v>
+      </c>
+      <c r="G82" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="H82" s="61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="21">
+        <v>529.96</v>
+      </c>
+      <c r="C83" s="21">
+        <v>72.16</v>
+      </c>
+      <c r="D83" s="21">
+        <v>40.58</v>
+      </c>
+      <c r="E83" s="22">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="21">
+        <v>425.58</v>
+      </c>
+      <c r="C84" s="21">
+        <v>33.6</v>
+      </c>
+      <c r="D84" s="21">
+        <v>82.36</v>
+      </c>
+      <c r="E84" s="22">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="21">
+        <v>548.66999999999996</v>
+      </c>
+      <c r="C85" s="21">
+        <v>47.14</v>
+      </c>
+      <c r="D85" s="21">
+        <v>52.85</v>
+      </c>
+      <c r="E85" s="22">
+        <v>12.97</v>
+      </c>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="I85" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="J85" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="K85" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="L85" s="62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="21">
+        <v>656.11</v>
+      </c>
+      <c r="C86" s="21">
+        <v>68.56</v>
+      </c>
+      <c r="D86" s="21">
+        <v>69.69</v>
+      </c>
+      <c r="E86" s="22">
+        <v>19.27</v>
+      </c>
+      <c r="G86" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="H86" s="60">
+        <v>3</v>
+      </c>
+      <c r="I86" s="60">
+        <v>259410.26651163222</v>
+      </c>
+      <c r="J86" s="60">
+        <v>86470.088837210744</v>
+      </c>
+      <c r="K86" s="60">
+        <v>17.714506716352325</v>
+      </c>
+      <c r="L86" s="60">
+        <v>8.7473622996550751E-8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="21">
+        <v>438.83</v>
+      </c>
+      <c r="C87" s="21">
+        <v>60.24</v>
+      </c>
+      <c r="D87" s="21">
+        <v>38.24</v>
+      </c>
+      <c r="E87" s="22">
+        <v>13.33</v>
+      </c>
+      <c r="G87" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="H87" s="60">
+        <v>46</v>
+      </c>
+      <c r="I87" s="60">
+        <v>224540.49385636774</v>
+      </c>
+      <c r="J87" s="60">
+        <v>4881.3150838340816</v>
+      </c>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+    </row>
+    <row r="88" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="21">
+        <v>412.2</v>
+      </c>
+      <c r="C88" s="21">
+        <v>55.02</v>
+      </c>
+      <c r="D88" s="21">
+        <v>46.14</v>
+      </c>
+      <c r="E88" s="22">
+        <v>11.56</v>
+      </c>
+      <c r="G88" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="H88" s="61">
+        <v>49</v>
+      </c>
+      <c r="I88" s="61">
+        <v>483950.76036799996</v>
+      </c>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+    </row>
+    <row r="89" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="21">
+        <v>445.37</v>
+      </c>
+      <c r="C89" s="21">
+        <v>56.03</v>
+      </c>
+      <c r="D89" s="21">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="E89" s="22">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="21">
+        <v>634.71</v>
+      </c>
+      <c r="C90" s="21">
+        <v>60.39</v>
+      </c>
+      <c r="D90" s="21">
+        <v>63.54</v>
+      </c>
+      <c r="E90" s="22">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="I90" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="J90" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="K90" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="L90" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="M90" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="N90" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="O90" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="21">
+        <v>449.15</v>
+      </c>
+      <c r="C91" s="21">
+        <v>54.28</v>
+      </c>
+      <c r="D91" s="21">
+        <v>57.43</v>
+      </c>
+      <c r="E91" s="22">
+        <v>6.88</v>
+      </c>
+      <c r="G91" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="H91" s="71">
+        <v>3.7556271332199458</v>
+      </c>
+      <c r="I91" s="60">
+        <v>62.761150959773929</v>
+      </c>
+      <c r="J91" s="60">
+        <v>5.9839997765928063E-2</v>
+      </c>
+      <c r="K91" s="72">
+        <v>0.95254229118931166</v>
+      </c>
+      <c r="L91" s="60">
+        <v>-122.57601741682696</v>
+      </c>
+      <c r="M91" s="60">
+        <v>130.08727168326686</v>
+      </c>
+      <c r="N91" s="60">
+        <v>-122.57601741682696</v>
+      </c>
+      <c r="O91" s="60">
+        <v>130.08727168326686</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="21">
+        <v>464.53</v>
+      </c>
+      <c r="C92" s="21">
+        <v>53.22</v>
+      </c>
+      <c r="D92" s="21">
+        <v>83.29</v>
+      </c>
+      <c r="E92" s="22">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="G92" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H92" s="71">
+        <v>2.2648598129354709</v>
+      </c>
+      <c r="I92" s="60">
+        <v>1.0389373500331058</v>
+      </c>
+      <c r="J92" s="60">
+        <v>2.1799772747252768</v>
+      </c>
+      <c r="K92" s="60">
+        <v>3.4413720877482241E-2</v>
+      </c>
+      <c r="L92" s="60">
+        <v>0.17358739350081676</v>
+      </c>
+      <c r="M92" s="60">
+        <v>4.3561322323701255</v>
+      </c>
+      <c r="N92" s="60">
+        <v>0.17358739350081676</v>
+      </c>
+      <c r="O92" s="60">
+        <v>4.3561322323701255</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="21">
+        <v>482.98</v>
+      </c>
+      <c r="C93" s="21">
+        <v>57.15</v>
+      </c>
+      <c r="D93" s="21">
+        <v>26.89</v>
+      </c>
+      <c r="E93" s="22">
+        <v>14</v>
+      </c>
+      <c r="G93" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="H93" s="71">
+        <v>2.4925026882912</v>
+      </c>
+      <c r="I93" s="60">
+        <v>0.78178737011481614</v>
+      </c>
+      <c r="J93" s="60">
+        <v>3.1882104822506174</v>
+      </c>
+      <c r="K93" s="60">
+        <v>2.5755427491440798E-3</v>
+      </c>
+      <c r="L93" s="60">
+        <v>0.91884633169629115</v>
+      </c>
+      <c r="M93" s="60">
+        <v>4.0661590448861089</v>
+      </c>
+      <c r="N93" s="60">
+        <v>0.91884633169629115</v>
+      </c>
+      <c r="O93" s="60">
+        <v>4.0661590448861089</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="21">
+        <v>399.45</v>
+      </c>
+      <c r="C94" s="21">
+        <v>56.24</v>
+      </c>
+      <c r="D94" s="21">
+        <v>47.83</v>
+      </c>
+      <c r="E94" s="22">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="G94" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="H94" s="73">
+        <v>16.697000266390916</v>
+      </c>
+      <c r="I94" s="61">
+        <v>3.5311380034788109</v>
+      </c>
+      <c r="J94" s="61">
+        <v>4.7285040261641837</v>
+      </c>
+      <c r="K94" s="61">
+        <v>2.172860459831613E-5</v>
+      </c>
+      <c r="L94" s="61">
+        <v>9.5891881200112756</v>
+      </c>
+      <c r="M94" s="61">
+        <v>23.804812412770556</v>
+      </c>
+      <c r="N94" s="61">
+        <v>9.5891881200112756</v>
+      </c>
+      <c r="O94" s="61">
+        <v>23.804812412770556</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="21">
+        <v>563.15</v>
+      </c>
+      <c r="C95" s="21">
+        <v>59.34</v>
+      </c>
+      <c r="D95" s="21">
+        <v>61.96</v>
+      </c>
+      <c r="E95" s="22">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="21">
+        <v>283.95999999999998</v>
+      </c>
+      <c r="C96" s="21">
+        <v>43.27</v>
+      </c>
+      <c r="D96" s="21">
+        <v>26.6</v>
+      </c>
+      <c r="E96" s="22">
+        <v>9.82</v>
+      </c>
+      <c r="H96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="21">
+        <v>315.19</v>
+      </c>
+      <c r="C97" s="21">
+        <v>33.97</v>
+      </c>
+      <c r="D97" s="21">
+        <v>34.72</v>
+      </c>
+      <c r="E97" s="22">
+        <v>8.25</v>
+      </c>
+      <c r="H97" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="21">
+        <v>430.05</v>
+      </c>
+      <c r="C98" s="21">
+        <v>50.6</v>
+      </c>
+      <c r="D98" s="21">
+        <v>57.49</v>
+      </c>
+      <c r="E98" s="22">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="H98" s="74">
+        <f xml:space="preserve"> 50 * H92 + 40 * H93 + 15 * H94 + H91</f>
+        <v>467.15372930750527</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="21">
+        <v>465.33</v>
+      </c>
+      <c r="C99" s="21">
+        <v>48.03</v>
+      </c>
+      <c r="D99" s="21">
+        <v>41.33</v>
+      </c>
+      <c r="E99" s="22">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="21">
+        <v>589.27</v>
+      </c>
+      <c r="C100" s="21">
+        <v>42.88</v>
+      </c>
+      <c r="D100" s="21">
+        <v>56.26</v>
+      </c>
+      <c r="E100" s="22">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="21">
+        <v>326.81</v>
+      </c>
+      <c r="C101" s="21">
+        <v>30.49</v>
+      </c>
+      <c r="D101" s="21">
+        <v>50.76</v>
+      </c>
+      <c r="E101" s="22">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="21">
+        <v>395.67</v>
+      </c>
+      <c r="C102" s="21">
+        <v>44.01</v>
+      </c>
+      <c r="D102" s="21">
+        <v>38.46</v>
+      </c>
+      <c r="E102" s="22">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="21">
+        <v>439.24</v>
+      </c>
+      <c r="C103" s="21">
+        <v>49.75</v>
+      </c>
+      <c r="D103" s="21">
+        <v>18.89</v>
+      </c>
+      <c r="E103" s="22">
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="21">
+        <v>456.59</v>
+      </c>
+      <c r="C104" s="21">
+        <v>51.94</v>
+      </c>
+      <c r="D104" s="21">
+        <v>50.45</v>
+      </c>
+      <c r="E104" s="22">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="21">
+        <v>500.93</v>
+      </c>
+      <c r="C105" s="21">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="D105" s="21">
+        <v>46.36</v>
+      </c>
+      <c r="E105" s="22">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="21">
+        <v>618.82000000000005</v>
+      </c>
+      <c r="C106" s="21">
+        <v>46.79</v>
+      </c>
+      <c r="D106" s="21">
+        <v>63.67</v>
+      </c>
+      <c r="E106" s="22">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="21">
+        <v>356.2</v>
+      </c>
+      <c r="C107" s="21">
+        <v>51.88</v>
+      </c>
+      <c r="D107" s="21">
+        <v>46.13</v>
+      </c>
+      <c r="E107" s="22">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="21">
+        <v>447.52</v>
+      </c>
+      <c r="C108" s="21">
+        <v>30.25</v>
+      </c>
+      <c r="D108" s="21">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="E108" s="22">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="21">
+        <v>338.28</v>
+      </c>
+      <c r="C109" s="21">
+        <v>44.43</v>
+      </c>
+      <c r="D109" s="21">
+        <v>47.11</v>
+      </c>
+      <c r="E109" s="22">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="21">
+        <v>130.93</v>
+      </c>
+      <c r="C110" s="21">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="D110" s="21">
+        <v>43</v>
+      </c>
+      <c r="E110" s="22">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="21">
+        <v>481.22</v>
+      </c>
+      <c r="C111" s="21">
+        <v>50.48</v>
+      </c>
+      <c r="D111" s="21">
+        <v>65.72</v>
+      </c>
+      <c r="E111" s="22">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="21">
+        <v>391.85</v>
+      </c>
+      <c r="C112" s="21">
+        <v>53.6</v>
+      </c>
+      <c r="D112" s="21">
+        <v>42.21</v>
+      </c>
+      <c r="E112" s="22">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="21">
+        <v>460.46</v>
+      </c>
+      <c r="C113" s="21">
+        <v>49.41</v>
+      </c>
+      <c r="D113" s="21">
+        <v>25.56</v>
+      </c>
+      <c r="E113" s="22">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="24">
+        <v>438.84</v>
+      </c>
+      <c r="C114" s="24">
+        <v>56.41</v>
+      </c>
+      <c r="D114" s="24">
+        <v>47.97</v>
+      </c>
+      <c r="E114" s="25">
         <v>9.8699999999999992</v>
       </c>
     </row>
@@ -7021,6 +8537,8 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27830,7 +29348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DD4552-C91C-4AA7-9B45-BACF72631B8F}">
   <dimension ref="A2:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
